--- a/Client Facing Documents/Final_report.xlsx
+++ b/Client Facing Documents/Final_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colmu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colmu\Desktop\Documents\GitHub Documents\CF_Instacart-Analysis\Client Facing Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDD7A9A-4C67-4BB7-B70A-1F640AB2E7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD59E490-214F-4369-9634-B17D7CE43C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-210" windowWidth="29040" windowHeight="15720" tabRatio="808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-210" windowWidth="29040" windowHeight="15720" tabRatio="808" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Title Page" sheetId="1" r:id="rId1"/>
@@ -562,14 +562,6 @@
   </si>
   <si>
     <t>Cross Tabs</t>
-  </si>
-  <si>
-    <t>The marketing and business strategy units at Instacart want to create more-relevant marketing strategies for different products and are, thus, curious about customer profiling in their database. 
-User Profile Information - 
-An analysis of consumer income, age groups, and family status.</t>
-  </si>
-  <si>
-    <t>Regional Area and Department Profile- An analysis across user profiles in various U.S. regions and department good for both purchasing frequency and avg purchasing metrics.</t>
   </si>
   <si>
     <t xml:space="preserve">What’s the distribution among users in regards to their brand loyalty (i.e., how often do they return to Instacart)?
@@ -935,89 +927,6 @@
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Users by Income
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">The primary user for Instacart is likely to make between $67,000 to $128,000 a year. This user base ‘avg_income’ has less variability in ordering practices comparatively to higher and lower income users making this user base ideal to pair with other user metrics when considering marketing strategies. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Users by Age
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Age ranges are reflected fairly equally amongst IC users. Marketing should consider targeting ads for </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>key question 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to different age groups that are indicated to show lower ordering frequency to increase order sales in that age group for various hours/days of the week.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Users by Family Size</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Married with kids make up the majority of ICs user base and are likely to make at or slightly above the average IC income of $96,000.  They are likely to place orders consistently though the day with some variability in the morning and consistently show low patterns of orders through the mid-week. Marketing should target this demographic to increase mid-week sales.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Verdana"/>
@@ -1377,9 +1286,79 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">The south and west regions show the highest rates of sales for all user profiles for frequency of orders and expenditures.  With the Midwest and northeast regions showing lower sales. Marketing should consider targeting ads to these regions to increase consumer usage and grow IC’s base. Consumer ages show the most variability in sales amongst profiles so marketing ads towards specific age ranges may help target IC consumers more specifically in different regions. 
-Lowest_income users show higher frequency of beverage and snack orders indicating they may more frequently use IC for enjoyment orders comparatively to higher and avg income users who show trends of groceries being prioritized. Marketing should consider a campaign to increase lower income users that targets the user of snacks/beverages. 
+    <r>
+      <t xml:space="preserve">Users by Income:
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The primary Instacart user typically earns between $67,000 and $128,000 annually.
+This user base, with an average income ('avg_income'), exhibits less variability in ordering practices compared to higher and lower income users.
+Ideal for pairing with other user metrics when devising marketing strategies.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Users by Age:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Age ranges are evenly distributed among Instacart users.
+Marketing efforts should target different age groups, particularly those with lower ordering frequency, to boost sales during various hours and days of the week.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Users by Family Size:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>The majority of Instacart's user base comprises married individuals with kids, likely earning at or slightly above the average Instacart income of $96,000.
+This demographic tends to place consistent orders throughout the day, with some variability in the morning and consistently low order patterns mid-week.
+Marketing strategies should focus on this demographic to increase mid-week sales.</t>
+    </r>
+  </si>
+  <si>
+    <t>The marketing and business strategy units at Instacart want to create more-relevant marketing strategies for different products and are, thus, curious about customer profiling in their database. 
+How can the marketing and business strategy units at Instacart leverage customer profiling, specifically analyzing consumer income, age groups, and family status?</t>
+  </si>
+  <si>
+    <t>Regional Area and Department Profile- Marketing wants an analysis of user profiles in different U.S. regions and departments, focusing on both purchasing frequency and average purchasing metrics.</t>
+  </si>
+  <si>
+    <t>The South and West regions exhibit the highest sales rates across all user profiles in terms of order frequency and expenditures, while the Midwest and Northeast regions show comparatively lower sales. To expand Instacart's user base, marketing efforts should be directed towards these regions. Consumer age demonstrates significant variability in sales among profiles, suggesting targeted ads for specific age ranges to enhance consumer engagement in different regions.
+Lowest-income users display a higher frequency of beverage and snack orders, indicating a potential focus on enjoyment orders compared to higher and average income users who prioritize groceries. A targeted marketing campaign aimed at increasing lower-income users, particularly those inclined towards snack/beverage orders, could be effective.</t>
   </si>
 </sst>
 </file>
@@ -2711,7 +2690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3045,72 +3024,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3217,6 +3130,75 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3243,11 +3225,11 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFE5FFE5"/>
+          <bgColor rgb="FFF3FFF3"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="hair">
           <color indexed="64"/>
         </left>
@@ -3258,43 +3240,8 @@
         <bottom style="hair">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="36"/>
-        <color theme="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF3FFF3"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3345,183 +3292,13 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <u/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
+        <sz val="36"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE5FFE5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="0"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE5FFE5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE5FFE5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -3529,53 +3306,8 @@
           <bgColor rgb="FFF3FFF3"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF3FFF3"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="hair">
           <color indexed="64"/>
@@ -3586,81 +3318,6 @@
         <bottom style="hair">
           <color indexed="64"/>
         </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="double">
-          <color indexed="64"/>
-        </left>
-        <right style="double">
-          <color indexed="64"/>
-        </right>
-        <top style="double">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF3FFF3"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3890,6 +3547,331 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE5FFE5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE5FFE5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE5FFE5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE5FFE5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF3FFF3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF3FFF3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="double">
+          <color indexed="64"/>
+        </left>
+        <right style="double">
+          <color indexed="64"/>
+        </right>
+        <top style="double">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="double">
           <color auto="1"/>
@@ -11388,40 +11370,40 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{66C17D69-CFA5-425D-A5CD-64A921FAC0F2}" name="Table5" displayName="Table5" ref="B6:G11" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{66C17D69-CFA5-425D-A5CD-64A921FAC0F2}" name="Table5" displayName="Table5" ref="B6:G11" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="B6:G11" xr:uid="{66C17D69-CFA5-425D-A5CD-64A921FAC0F2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3871FDC3-9DCA-458C-A924-0C6B583C02B4}" name="Dataset" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{34A5EADD-4E9B-40EC-AD29-BE0F4A7F1A3B}" name="Duplicates" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{C93E3084-CA84-4236-87DD-909B88D43CE8}" name="Missing values" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{E0715049-6B1E-4B0F-85D5-F1B1F75D4E69}" name="Column" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{FDBCEF7B-22CA-4341-8193-B165E36ABA8A}" name="Missing Values Treatment" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{414406E5-478A-4BD5-8859-407C31C374FB}" name=" Visual" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3871FDC3-9DCA-458C-A924-0C6B583C02B4}" name="Dataset" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{34A5EADD-4E9B-40EC-AD29-BE0F4A7F1A3B}" name="Duplicates" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{C93E3084-CA84-4236-87DD-909B88D43CE8}" name="Missing values" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{E0715049-6B1E-4B0F-85D5-F1B1F75D4E69}" name="Column" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{FDBCEF7B-22CA-4341-8193-B165E36ABA8A}" name="Missing Values Treatment" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{414406E5-478A-4BD5-8859-407C31C374FB}" name=" Visual" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA034F6B-21FE-42FA-A4FA-61C90C8D3C77}" name="Table3" displayName="Table3" ref="B6:E24" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA034F6B-21FE-42FA-A4FA-61C90C8D3C77}" name="Table3" displayName="Table3" ref="B6:E24" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="B6:E24" xr:uid="{AA034F6B-21FE-42FA-A4FA-61C90C8D3C77}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{498E2A45-C9B0-45B1-91FD-22F427C7A6F3}" name="Dataset" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{5A002B8C-0B6B-4E83-ABDC-7D7F9F190D3D}" name="New column " dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{E8B38B48-9F1F-48FE-8463-53F8DF03FCE0}" name="Column/s it was Derived From " dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{5DF5DFEF-3BAF-4A2F-8DED-A80D2A88DBFD}" name="Conditions" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{498E2A45-C9B0-45B1-91FD-22F427C7A6F3}" name="Dataset" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{5A002B8C-0B6B-4E83-ABDC-7D7F9F190D3D}" name="New column " dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{E8B38B48-9F1F-48FE-8463-53F8DF03FCE0}" name="Column/s it was Derived From " dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{5DF5DFEF-3BAF-4A2F-8DED-A80D2A88DBFD}" name="Conditions" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B366E6B3-5F88-4DC4-9A80-EDC4EB9A6397}" name="Table4" displayName="Table4" ref="B8:D15" totalsRowShown="0" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B366E6B3-5F88-4DC4-9A80-EDC4EB9A6397}" name="Table4" displayName="Table4" ref="B8:D15" totalsRowShown="0" tableBorderDxfId="3">
   <autoFilter ref="B8:D15" xr:uid="{B366E6B3-5F88-4DC4-9A80-EDC4EB9A6397}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5C97DDF5-6B70-4FB5-8765-EA1153B7803B}" name="Number" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{A92BAB7E-B6E6-4919-87BD-5C4974130140}" name="Key Question" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{E4D906A5-1BB1-47B3-8E0B-EFFF68C4475E}" name="Recommendations" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{5C97DDF5-6B70-4FB5-8765-EA1153B7803B}" name="Number" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A92BAB7E-B6E6-4919-87BD-5C4974130140}" name="Key Question" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{E4D906A5-1BB1-47B3-8E0B-EFFF68C4475E}" name="Recommendations" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11695,7 +11677,7 @@
   </sheetPr>
   <dimension ref="A12:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -11740,7 +11722,7 @@
       <c r="B15" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="178" t="s">
+      <c r="C15" s="156" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="20"/>
@@ -11770,7 +11752,7 @@
       <c r="B17" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="179" t="s">
+      <c r="C17" s="157" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="20"/>
@@ -11785,7 +11767,7 @@
       <c r="B18" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="180" t="s">
+      <c r="C18" s="158" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="20"/>
@@ -11797,10 +11779,10 @@
     </row>
     <row r="19" spans="1:7" ht="27.75" thickBot="1">
       <c r="A19" s="3"/>
-      <c r="B19" s="192" t="s">
+      <c r="B19" s="170" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="181" t="s">
+      <c r="C19" s="159" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="20"/>
@@ -11884,7 +11866,7 @@
   </sheetPr>
   <dimension ref="B1:AK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="AM27" sqref="AM27"/>
     </sheetView>
   </sheetViews>
@@ -11906,34 +11888,34 @@
     </row>
     <row r="4" spans="2:37" ht="18" thickBot="1"/>
     <row r="5" spans="2:37">
-      <c r="Z5" s="138" t="s">
+      <c r="Z5" s="179" t="s">
         <v>82</v>
       </c>
-      <c r="AA5" s="139"/>
-      <c r="AB5" s="139"/>
-      <c r="AC5" s="139"/>
-      <c r="AD5" s="139"/>
-      <c r="AE5" s="139"/>
-      <c r="AF5" s="139"/>
-      <c r="AG5" s="139"/>
-      <c r="AH5" s="139"/>
-      <c r="AI5" s="139"/>
-      <c r="AJ5" s="139"/>
-      <c r="AK5" s="140"/>
+      <c r="AA5" s="180"/>
+      <c r="AB5" s="180"/>
+      <c r="AC5" s="180"/>
+      <c r="AD5" s="180"/>
+      <c r="AE5" s="180"/>
+      <c r="AF5" s="180"/>
+      <c r="AG5" s="180"/>
+      <c r="AH5" s="180"/>
+      <c r="AI5" s="180"/>
+      <c r="AJ5" s="180"/>
+      <c r="AK5" s="181"/>
     </row>
     <row r="6" spans="2:37" ht="8.4499999999999993" customHeight="1">
-      <c r="Z6" s="141"/>
-      <c r="AA6" s="142"/>
-      <c r="AB6" s="142"/>
-      <c r="AC6" s="142"/>
-      <c r="AD6" s="142"/>
-      <c r="AE6" s="142"/>
-      <c r="AF6" s="142"/>
-      <c r="AG6" s="142"/>
-      <c r="AH6" s="142"/>
-      <c r="AI6" s="142"/>
-      <c r="AJ6" s="142"/>
-      <c r="AK6" s="143"/>
+      <c r="Z6" s="182"/>
+      <c r="AA6" s="183"/>
+      <c r="AB6" s="183"/>
+      <c r="AC6" s="183"/>
+      <c r="AD6" s="183"/>
+      <c r="AE6" s="183"/>
+      <c r="AF6" s="183"/>
+      <c r="AG6" s="183"/>
+      <c r="AH6" s="183"/>
+      <c r="AI6" s="183"/>
+      <c r="AJ6" s="183"/>
+      <c r="AK6" s="184"/>
     </row>
     <row r="7" spans="2:37" ht="18">
       <c r="B7" s="5"/>
@@ -11960,18 +11942,18 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-      <c r="Z7" s="144"/>
-      <c r="AA7" s="145"/>
-      <c r="AB7" s="145"/>
-      <c r="AC7" s="145"/>
-      <c r="AD7" s="145"/>
-      <c r="AE7" s="145"/>
-      <c r="AF7" s="145"/>
-      <c r="AG7" s="145"/>
-      <c r="AH7" s="145"/>
-      <c r="AI7" s="145"/>
-      <c r="AJ7" s="145"/>
-      <c r="AK7" s="146"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="186"/>
+      <c r="AB7" s="186"/>
+      <c r="AC7" s="186"/>
+      <c r="AD7" s="186"/>
+      <c r="AE7" s="186"/>
+      <c r="AF7" s="186"/>
+      <c r="AG7" s="186"/>
+      <c r="AH7" s="186"/>
+      <c r="AI7" s="186"/>
+      <c r="AJ7" s="186"/>
+      <c r="AK7" s="187"/>
     </row>
     <row r="8" spans="2:37" ht="24" customHeight="1">
       <c r="B8" s="5"/>
@@ -11998,20 +11980,20 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-      <c r="Z8" s="131" t="s">
+      <c r="Z8" s="172" t="s">
         <v>117</v>
       </c>
-      <c r="AA8" s="132"/>
-      <c r="AB8" s="132"/>
-      <c r="AC8" s="132"/>
-      <c r="AD8" s="132"/>
-      <c r="AE8" s="132"/>
-      <c r="AF8" s="132"/>
-      <c r="AG8" s="132"/>
-      <c r="AH8" s="132"/>
-      <c r="AI8" s="132"/>
-      <c r="AJ8" s="132"/>
-      <c r="AK8" s="133"/>
+      <c r="AA8" s="173"/>
+      <c r="AB8" s="173"/>
+      <c r="AC8" s="173"/>
+      <c r="AD8" s="173"/>
+      <c r="AE8" s="173"/>
+      <c r="AF8" s="173"/>
+      <c r="AG8" s="173"/>
+      <c r="AH8" s="173"/>
+      <c r="AI8" s="173"/>
+      <c r="AJ8" s="173"/>
+      <c r="AK8" s="174"/>
     </row>
     <row r="9" spans="2:37" ht="18" customHeight="1">
       <c r="B9" s="5"/>
@@ -12038,18 +12020,18 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="134"/>
-      <c r="AA9" s="132"/>
-      <c r="AB9" s="132"/>
-      <c r="AC9" s="132"/>
-      <c r="AD9" s="132"/>
-      <c r="AE9" s="132"/>
-      <c r="AF9" s="132"/>
-      <c r="AG9" s="132"/>
-      <c r="AH9" s="132"/>
-      <c r="AI9" s="132"/>
-      <c r="AJ9" s="132"/>
-      <c r="AK9" s="133"/>
+      <c r="Z9" s="175"/>
+      <c r="AA9" s="173"/>
+      <c r="AB9" s="173"/>
+      <c r="AC9" s="173"/>
+      <c r="AD9" s="173"/>
+      <c r="AE9" s="173"/>
+      <c r="AF9" s="173"/>
+      <c r="AG9" s="173"/>
+      <c r="AH9" s="173"/>
+      <c r="AI9" s="173"/>
+      <c r="AJ9" s="173"/>
+      <c r="AK9" s="174"/>
     </row>
     <row r="10" spans="2:37" ht="18" customHeight="1">
       <c r="B10" s="5"/>
@@ -12076,18 +12058,18 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="134"/>
-      <c r="AA10" s="132"/>
-      <c r="AB10" s="132"/>
-      <c r="AC10" s="132"/>
-      <c r="AD10" s="132"/>
-      <c r="AE10" s="132"/>
-      <c r="AF10" s="132"/>
-      <c r="AG10" s="132"/>
-      <c r="AH10" s="132"/>
-      <c r="AI10" s="132"/>
-      <c r="AJ10" s="132"/>
-      <c r="AK10" s="133"/>
+      <c r="Z10" s="175"/>
+      <c r="AA10" s="173"/>
+      <c r="AB10" s="173"/>
+      <c r="AC10" s="173"/>
+      <c r="AD10" s="173"/>
+      <c r="AE10" s="173"/>
+      <c r="AF10" s="173"/>
+      <c r="AG10" s="173"/>
+      <c r="AH10" s="173"/>
+      <c r="AI10" s="173"/>
+      <c r="AJ10" s="173"/>
+      <c r="AK10" s="174"/>
     </row>
     <row r="11" spans="2:37" ht="18" customHeight="1">
       <c r="B11" s="5"/>
@@ -12114,18 +12096,18 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="134"/>
-      <c r="AA11" s="132"/>
-      <c r="AB11" s="132"/>
-      <c r="AC11" s="132"/>
-      <c r="AD11" s="132"/>
-      <c r="AE11" s="132"/>
-      <c r="AF11" s="132"/>
-      <c r="AG11" s="132"/>
-      <c r="AH11" s="132"/>
-      <c r="AI11" s="132"/>
-      <c r="AJ11" s="132"/>
-      <c r="AK11" s="133"/>
+      <c r="Z11" s="175"/>
+      <c r="AA11" s="173"/>
+      <c r="AB11" s="173"/>
+      <c r="AC11" s="173"/>
+      <c r="AD11" s="173"/>
+      <c r="AE11" s="173"/>
+      <c r="AF11" s="173"/>
+      <c r="AG11" s="173"/>
+      <c r="AH11" s="173"/>
+      <c r="AI11" s="173"/>
+      <c r="AJ11" s="173"/>
+      <c r="AK11" s="174"/>
     </row>
     <row r="12" spans="2:37" ht="18" customHeight="1">
       <c r="B12" s="5"/>
@@ -12152,18 +12134,18 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-      <c r="Z12" s="134"/>
-      <c r="AA12" s="132"/>
-      <c r="AB12" s="132"/>
-      <c r="AC12" s="132"/>
-      <c r="AD12" s="132"/>
-      <c r="AE12" s="132"/>
-      <c r="AF12" s="132"/>
-      <c r="AG12" s="132"/>
-      <c r="AH12" s="132"/>
-      <c r="AI12" s="132"/>
-      <c r="AJ12" s="132"/>
-      <c r="AK12" s="133"/>
+      <c r="Z12" s="175"/>
+      <c r="AA12" s="173"/>
+      <c r="AB12" s="173"/>
+      <c r="AC12" s="173"/>
+      <c r="AD12" s="173"/>
+      <c r="AE12" s="173"/>
+      <c r="AF12" s="173"/>
+      <c r="AG12" s="173"/>
+      <c r="AH12" s="173"/>
+      <c r="AI12" s="173"/>
+      <c r="AJ12" s="173"/>
+      <c r="AK12" s="174"/>
     </row>
     <row r="13" spans="2:37" ht="18" customHeight="1">
       <c r="B13" s="5"/>
@@ -12190,18 +12172,18 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-      <c r="Z13" s="134"/>
-      <c r="AA13" s="132"/>
-      <c r="AB13" s="132"/>
-      <c r="AC13" s="132"/>
-      <c r="AD13" s="132"/>
-      <c r="AE13" s="132"/>
-      <c r="AF13" s="132"/>
-      <c r="AG13" s="132"/>
-      <c r="AH13" s="132"/>
-      <c r="AI13" s="132"/>
-      <c r="AJ13" s="132"/>
-      <c r="AK13" s="133"/>
+      <c r="Z13" s="175"/>
+      <c r="AA13" s="173"/>
+      <c r="AB13" s="173"/>
+      <c r="AC13" s="173"/>
+      <c r="AD13" s="173"/>
+      <c r="AE13" s="173"/>
+      <c r="AF13" s="173"/>
+      <c r="AG13" s="173"/>
+      <c r="AH13" s="173"/>
+      <c r="AI13" s="173"/>
+      <c r="AJ13" s="173"/>
+      <c r="AK13" s="174"/>
     </row>
     <row r="14" spans="2:37" ht="18">
       <c r="B14" s="5"/>
@@ -12228,18 +12210,18 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-      <c r="Z14" s="134"/>
-      <c r="AA14" s="132"/>
-      <c r="AB14" s="132"/>
-      <c r="AC14" s="132"/>
-      <c r="AD14" s="132"/>
-      <c r="AE14" s="132"/>
-      <c r="AF14" s="132"/>
-      <c r="AG14" s="132"/>
-      <c r="AH14" s="132"/>
-      <c r="AI14" s="132"/>
-      <c r="AJ14" s="132"/>
-      <c r="AK14" s="133"/>
+      <c r="Z14" s="175"/>
+      <c r="AA14" s="173"/>
+      <c r="AB14" s="173"/>
+      <c r="AC14" s="173"/>
+      <c r="AD14" s="173"/>
+      <c r="AE14" s="173"/>
+      <c r="AF14" s="173"/>
+      <c r="AG14" s="173"/>
+      <c r="AH14" s="173"/>
+      <c r="AI14" s="173"/>
+      <c r="AJ14" s="173"/>
+      <c r="AK14" s="174"/>
     </row>
     <row r="15" spans="2:37" ht="18">
       <c r="B15" s="5"/>
@@ -12266,18 +12248,18 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
-      <c r="Z15" s="134"/>
-      <c r="AA15" s="132"/>
-      <c r="AB15" s="132"/>
-      <c r="AC15" s="132"/>
-      <c r="AD15" s="132"/>
-      <c r="AE15" s="132"/>
-      <c r="AF15" s="132"/>
-      <c r="AG15" s="132"/>
-      <c r="AH15" s="132"/>
-      <c r="AI15" s="132"/>
-      <c r="AJ15" s="132"/>
-      <c r="AK15" s="133"/>
+      <c r="Z15" s="175"/>
+      <c r="AA15" s="173"/>
+      <c r="AB15" s="173"/>
+      <c r="AC15" s="173"/>
+      <c r="AD15" s="173"/>
+      <c r="AE15" s="173"/>
+      <c r="AF15" s="173"/>
+      <c r="AG15" s="173"/>
+      <c r="AH15" s="173"/>
+      <c r="AI15" s="173"/>
+      <c r="AJ15" s="173"/>
+      <c r="AK15" s="174"/>
     </row>
     <row r="16" spans="2:37" ht="18">
       <c r="B16" s="5"/>
@@ -12304,18 +12286,18 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
-      <c r="Z16" s="134"/>
-      <c r="AA16" s="132"/>
-      <c r="AB16" s="132"/>
-      <c r="AC16" s="132"/>
-      <c r="AD16" s="132"/>
-      <c r="AE16" s="132"/>
-      <c r="AF16" s="132"/>
-      <c r="AG16" s="132"/>
-      <c r="AH16" s="132"/>
-      <c r="AI16" s="132"/>
-      <c r="AJ16" s="132"/>
-      <c r="AK16" s="133"/>
+      <c r="Z16" s="175"/>
+      <c r="AA16" s="173"/>
+      <c r="AB16" s="173"/>
+      <c r="AC16" s="173"/>
+      <c r="AD16" s="173"/>
+      <c r="AE16" s="173"/>
+      <c r="AF16" s="173"/>
+      <c r="AG16" s="173"/>
+      <c r="AH16" s="173"/>
+      <c r="AI16" s="173"/>
+      <c r="AJ16" s="173"/>
+      <c r="AK16" s="174"/>
     </row>
     <row r="17" spans="2:37" ht="18">
       <c r="B17" s="5"/>
@@ -12342,18 +12324,18 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
-      <c r="Z17" s="134"/>
-      <c r="AA17" s="132"/>
-      <c r="AB17" s="132"/>
-      <c r="AC17" s="132"/>
-      <c r="AD17" s="132"/>
-      <c r="AE17" s="132"/>
-      <c r="AF17" s="132"/>
-      <c r="AG17" s="132"/>
-      <c r="AH17" s="132"/>
-      <c r="AI17" s="132"/>
-      <c r="AJ17" s="132"/>
-      <c r="AK17" s="133"/>
+      <c r="Z17" s="175"/>
+      <c r="AA17" s="173"/>
+      <c r="AB17" s="173"/>
+      <c r="AC17" s="173"/>
+      <c r="AD17" s="173"/>
+      <c r="AE17" s="173"/>
+      <c r="AF17" s="173"/>
+      <c r="AG17" s="173"/>
+      <c r="AH17" s="173"/>
+      <c r="AI17" s="173"/>
+      <c r="AJ17" s="173"/>
+      <c r="AK17" s="174"/>
     </row>
     <row r="18" spans="2:37" ht="18">
       <c r="B18" s="5"/>
@@ -12380,18 +12362,18 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
-      <c r="Z18" s="134"/>
-      <c r="AA18" s="132"/>
-      <c r="AB18" s="132"/>
-      <c r="AC18" s="132"/>
-      <c r="AD18" s="132"/>
-      <c r="AE18" s="132"/>
-      <c r="AF18" s="132"/>
-      <c r="AG18" s="132"/>
-      <c r="AH18" s="132"/>
-      <c r="AI18" s="132"/>
-      <c r="AJ18" s="132"/>
-      <c r="AK18" s="133"/>
+      <c r="Z18" s="175"/>
+      <c r="AA18" s="173"/>
+      <c r="AB18" s="173"/>
+      <c r="AC18" s="173"/>
+      <c r="AD18" s="173"/>
+      <c r="AE18" s="173"/>
+      <c r="AF18" s="173"/>
+      <c r="AG18" s="173"/>
+      <c r="AH18" s="173"/>
+      <c r="AI18" s="173"/>
+      <c r="AJ18" s="173"/>
+      <c r="AK18" s="174"/>
     </row>
     <row r="19" spans="2:37" ht="18">
       <c r="B19" s="5"/>
@@ -12418,18 +12400,18 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="134"/>
-      <c r="AA19" s="132"/>
-      <c r="AB19" s="132"/>
-      <c r="AC19" s="132"/>
-      <c r="AD19" s="132"/>
-      <c r="AE19" s="132"/>
-      <c r="AF19" s="132"/>
-      <c r="AG19" s="132"/>
-      <c r="AH19" s="132"/>
-      <c r="AI19" s="132"/>
-      <c r="AJ19" s="132"/>
-      <c r="AK19" s="133"/>
+      <c r="Z19" s="175"/>
+      <c r="AA19" s="173"/>
+      <c r="AB19" s="173"/>
+      <c r="AC19" s="173"/>
+      <c r="AD19" s="173"/>
+      <c r="AE19" s="173"/>
+      <c r="AF19" s="173"/>
+      <c r="AG19" s="173"/>
+      <c r="AH19" s="173"/>
+      <c r="AI19" s="173"/>
+      <c r="AJ19" s="173"/>
+      <c r="AK19" s="174"/>
     </row>
     <row r="20" spans="2:37" ht="18">
       <c r="B20" s="5"/>
@@ -12456,18 +12438,18 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
-      <c r="Z20" s="134"/>
-      <c r="AA20" s="132"/>
-      <c r="AB20" s="132"/>
-      <c r="AC20" s="132"/>
-      <c r="AD20" s="132"/>
-      <c r="AE20" s="132"/>
-      <c r="AF20" s="132"/>
-      <c r="AG20" s="132"/>
-      <c r="AH20" s="132"/>
-      <c r="AI20" s="132"/>
-      <c r="AJ20" s="132"/>
-      <c r="AK20" s="133"/>
+      <c r="Z20" s="175"/>
+      <c r="AA20" s="173"/>
+      <c r="AB20" s="173"/>
+      <c r="AC20" s="173"/>
+      <c r="AD20" s="173"/>
+      <c r="AE20" s="173"/>
+      <c r="AF20" s="173"/>
+      <c r="AG20" s="173"/>
+      <c r="AH20" s="173"/>
+      <c r="AI20" s="173"/>
+      <c r="AJ20" s="173"/>
+      <c r="AK20" s="174"/>
     </row>
     <row r="21" spans="2:37" ht="18.75" thickBot="1">
       <c r="B21" s="5"/>
@@ -12494,18 +12476,18 @@
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
-      <c r="Z21" s="135"/>
-      <c r="AA21" s="136"/>
-      <c r="AB21" s="136"/>
-      <c r="AC21" s="136"/>
-      <c r="AD21" s="136"/>
-      <c r="AE21" s="136"/>
-      <c r="AF21" s="136"/>
-      <c r="AG21" s="136"/>
-      <c r="AH21" s="136"/>
-      <c r="AI21" s="136"/>
-      <c r="AJ21" s="136"/>
-      <c r="AK21" s="137"/>
+      <c r="Z21" s="176"/>
+      <c r="AA21" s="177"/>
+      <c r="AB21" s="177"/>
+      <c r="AC21" s="177"/>
+      <c r="AD21" s="177"/>
+      <c r="AE21" s="177"/>
+      <c r="AF21" s="177"/>
+      <c r="AG21" s="177"/>
+      <c r="AH21" s="177"/>
+      <c r="AI21" s="177"/>
+      <c r="AJ21" s="177"/>
+      <c r="AK21" s="178"/>
     </row>
     <row r="22" spans="2:37" ht="18">
       <c r="B22" s="5"/>
@@ -12721,129 +12703,129 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="34.5" customHeight="1">
-      <c r="B6" s="154" t="s">
+      <c r="B6" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="156" t="s">
+      <c r="D6" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="156" t="s">
+      <c r="E6" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="156" t="s">
+      <c r="F6" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="157" t="s">
-        <v>145</v>
+      <c r="G6" s="135" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="198">
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="159" t="s">
+      <c r="C7" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="160" t="s">
+      <c r="D7" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="161" t="s">
+      <c r="E7" s="139" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" s="188">
+        <v>147</v>
+      </c>
+      <c r="G7" s="166">
         <v>1</v>
       </c>
-      <c r="H7" s="189"/>
+      <c r="H7" s="167"/>
     </row>
     <row r="8" spans="2:11" ht="46.5">
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="159" t="s">
+      <c r="C8" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="161" t="s">
+      <c r="D8" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="161" t="s">
+      <c r="E8" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="161" t="s">
+      <c r="F8" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="190">
+      <c r="G8" s="168">
         <v>2</v>
       </c>
-      <c r="H8" s="189"/>
+      <c r="H8" s="167"/>
     </row>
     <row r="9" spans="2:11" ht="18">
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="159" t="s">
+      <c r="C9" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="161" t="s">
+      <c r="D9" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="161" t="s">
+      <c r="E9" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="161" t="s">
+      <c r="F9" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="167" t="s">
+      <c r="G9" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="189"/>
+      <c r="H9" s="167"/>
     </row>
     <row r="10" spans="2:11" ht="36" customHeight="1">
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="159" t="s">
+      <c r="C10" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="161" t="s">
+      <c r="D10" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="161" t="s">
+      <c r="E10" s="139" t="s">
         <v>68</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="166" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="189"/>
+      <c r="H10" s="167"/>
     </row>
     <row r="11" spans="2:11" ht="157.5" customHeight="1">
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="163" t="s">
+      <c r="C11" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="164" t="s">
+      <c r="D11" s="142" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="164" t="s">
+      <c r="E11" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="165" t="s">
-        <v>156</v>
-      </c>
-      <c r="G11" s="191">
+      <c r="F11" s="143" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="169">
         <v>3</v>
       </c>
-      <c r="H11" s="189"/>
+      <c r="H11" s="167"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13146,8 +13128,8 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13181,7 +13163,7 @@
     </row>
     <row r="7" spans="2:12" ht="371.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B7" s="123" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" s="85" t="s">
         <v>114</v>
@@ -13203,7 +13185,7 @@
     </row>
     <row r="9" spans="2:12" ht="380.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B9" s="125" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" s="85" t="s">
         <v>114</v>
@@ -13226,7 +13208,7 @@
     </row>
     <row r="11" spans="2:12" ht="376.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="B11" s="123" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" s="89"/>
     </row>
@@ -13247,7 +13229,7 @@
     </row>
     <row r="13" spans="2:12" ht="409.6" customHeight="1" thickTop="1">
       <c r="B13" s="125" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" s="89"/>
     </row>
@@ -13271,14 +13253,14 @@
       <c r="J15" s="112"/>
     </row>
     <row r="16" spans="2:12" ht="409.5" customHeight="1" thickTop="1">
-      <c r="B16" s="186" t="s">
-        <v>163</v>
+      <c r="B16" s="164" t="s">
+        <v>160</v>
       </c>
       <c r="C16" s="92"/>
     </row>
     <row r="17" spans="2:9" ht="261.75" customHeight="1">
       <c r="B17" s="123" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C17" s="92"/>
     </row>
@@ -13287,8 +13269,8 @@
       <c r="C18" s="92"/>
     </row>
     <row r="19" spans="2:9" ht="409.5" customHeight="1">
-      <c r="B19" s="187" t="s">
-        <v>164</v>
+      <c r="B19" s="165" t="s">
+        <v>161</v>
       </c>
       <c r="C19" s="92"/>
     </row>
@@ -13325,15 +13307,15 @@
       <c r="I22" s="109"/>
     </row>
     <row r="23" spans="2:9" ht="408.75" customHeight="1">
-      <c r="B23" s="147" t="s">
-        <v>137</v>
+      <c r="B23" s="188" t="s">
+        <v>135</v>
       </c>
       <c r="C23" s="96" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="408.75" customHeight="1" thickBot="1">
-      <c r="B24" s="148"/>
+      <c r="B24" s="189"/>
       <c r="C24" s="90"/>
     </row>
     <row r="25" spans="2:9" ht="25.5" customHeight="1" thickBot="1">
@@ -13349,17 +13331,17 @@
       <c r="I25" s="100"/>
     </row>
     <row r="26" spans="2:9" ht="294.75" customHeight="1">
-      <c r="B26" s="149" t="s">
-        <v>138</v>
+      <c r="B26" s="190" t="s">
+        <v>136</v>
       </c>
       <c r="C26" s="95"/>
     </row>
     <row r="27" spans="2:9" ht="294.75" customHeight="1">
-      <c r="B27" s="150"/>
+      <c r="B27" s="191"/>
       <c r="C27" s="91"/>
     </row>
     <row r="28" spans="2:9" ht="177.75" customHeight="1" thickBot="1">
-      <c r="B28" s="151"/>
+      <c r="B28" s="192"/>
       <c r="C28" s="91"/>
     </row>
     <row r="29" spans="2:9" ht="36" customHeight="1" thickBot="1">
@@ -13375,13 +13357,13 @@
       <c r="I29" s="100"/>
     </row>
     <row r="30" spans="2:9" ht="380.25" customHeight="1">
-      <c r="B30" s="149" t="s">
-        <v>140</v>
+      <c r="B30" s="190" t="s">
+        <v>137</v>
       </c>
       <c r="C30" s="95"/>
     </row>
     <row r="31" spans="2:9" ht="380.25" customHeight="1">
-      <c r="B31" s="152"/>
+      <c r="B31" s="193"/>
       <c r="C31" s="91"/>
     </row>
     <row r="32" spans="2:9" ht="231" customHeight="1" thickBot="1">
@@ -13418,7 +13400,7 @@
     </row>
     <row r="35" spans="2:9" ht="304.5" customHeight="1">
       <c r="B35" s="123" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C35" s="97"/>
     </row>
@@ -13428,7 +13410,7 @@
     </row>
     <row r="37" spans="2:9" ht="304.5" customHeight="1">
       <c r="B37" s="126" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C37" s="97"/>
     </row>
@@ -13450,13 +13432,13 @@
     </row>
     <row r="40" spans="2:9" ht="304.5" customHeight="1">
       <c r="B40" s="127" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C40" s="97"/>
     </row>
     <row r="41" spans="2:9" ht="304.5" customHeight="1">
       <c r="B41" s="126" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C41" s="97"/>
     </row>
@@ -13478,7 +13460,7 @@
     </row>
     <row r="44" spans="2:9" ht="304.5" customHeight="1">
       <c r="B44" s="128" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C44" s="97"/>
     </row>
@@ -13488,7 +13470,7 @@
     </row>
     <row r="46" spans="2:9" ht="304.5" customHeight="1">
       <c r="B46" s="126" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C46" s="97"/>
     </row>
@@ -13501,8 +13483,8 @@
     </row>
     <row r="52" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="53" spans="1:3" ht="36.75" thickTop="1" thickBot="1">
-      <c r="A53" s="153"/>
-      <c r="B53" s="168" t="s">
+      <c r="A53" s="131"/>
+      <c r="B53" s="146" t="s">
         <v>102</v>
       </c>
       <c r="C53" s="122" t="s">
@@ -13510,50 +13492,50 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="24.75" customHeight="1" thickTop="1">
-      <c r="A54" s="153"/>
-      <c r="B54" s="174" t="s">
-        <v>153</v>
-      </c>
-      <c r="C54" s="173" t="s">
-        <v>146</v>
+      <c r="A54" s="131"/>
+      <c r="B54" s="152" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="151" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="409.5" customHeight="1">
-      <c r="A55" s="153"/>
-      <c r="B55" s="169" t="s">
-        <v>152</v>
+      <c r="A55" s="131"/>
+      <c r="B55" s="147" t="s">
+        <v>149</v>
       </c>
       <c r="C55" s="87"/>
     </row>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="153"/>
-      <c r="B56" s="175" t="s">
-        <v>154</v>
-      </c>
-      <c r="C56" s="170" t="s">
-        <v>147</v>
+      <c r="A56" s="131"/>
+      <c r="B56" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="148" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="409.5" customHeight="1">
-      <c r="A57" s="153"/>
-      <c r="B57" s="171" t="s">
-        <v>149</v>
+      <c r="A57" s="131"/>
+      <c r="B57" s="149" t="s">
+        <v>146</v>
       </c>
       <c r="C57" s="87"/>
     </row>
     <row r="58" spans="1:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A58" s="153"/>
-      <c r="B58" s="176" t="s">
-        <v>155</v>
-      </c>
-      <c r="C58" s="172" t="s">
-        <v>148</v>
+      <c r="A58" s="131"/>
+      <c r="B58" s="154" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="150" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="387.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A59" s="153"/>
-      <c r="B59" s="177" t="s">
-        <v>157</v>
+      <c r="A59" s="131"/>
+      <c r="B59" s="155" t="s">
+        <v>154</v>
       </c>
       <c r="C59" s="88"/>
     </row>
@@ -13590,8 +13572,8 @@
   </sheetPr>
   <dimension ref="B1:J17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13624,40 +13606,40 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="152.25" customHeight="1">
-      <c r="B9" s="182">
+      <c r="B9" s="160">
         <v>1</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="144">
-      <c r="B10" s="183">
+      <c r="B10" s="161">
         <v>2</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="111" customHeight="1">
-      <c r="B11" s="184">
+      <c r="B11" s="162">
         <v>3</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>115</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="126">
-      <c r="B12" s="183">
+      <c r="B12" s="161">
         <v>4</v>
       </c>
       <c r="C12" s="43" t="s">
@@ -13668,33 +13650,33 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="200.25" customHeight="1">
-      <c r="B13" s="184">
+      <c r="B13" s="162">
         <v>5</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D13" s="73" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="275.25" customHeight="1">
-      <c r="B14" s="183">
+      <c r="B14" s="161">
         <v>6</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>139</v>
+        <v>164</v>
+      </c>
+      <c r="D14" s="171" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="171.75" customHeight="1">
-      <c r="B15" s="185">
+    <row r="15" spans="2:10" ht="195.75" customHeight="1">
+      <c r="B15" s="163">
         <v>7</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="D15" s="130" t="s">
         <v>166</v>
